--- a/Results/Classification/Control vs Atypical/Control 0 (13, 11, 8, 14, 6)/Atypical 2 (4, 1, 13, 10)/NCDE_32nodes_Control_vs_Atypical_batchsize3_200maxITER_None_smoothing0_dropout0.0.xlsx
+++ b/Results/Classification/Control vs Atypical/Control 0 (13, 11, 8, 14, 6)/Atypical 2 (4, 1, 13, 10)/NCDE_32nodes_Control_vs_Atypical_batchsize3_200maxITER_None_smoothing0_dropout0.0.xlsx
@@ -453,10 +453,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.02530399975908262</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.02530399975908262</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -467,10 +467,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.8738244904266079</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.8738244904266079</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -478,13 +478,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.5263704196157762</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.5263704196157762</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -492,13 +492,13 @@
         <v>9</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0.9997512698173523</v>
+        <v>0.08263331213056946</v>
       </c>
       <c r="E5">
-        <v>0.9997512698173523</v>
+        <v>0.08263331213056946</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -506,13 +506,13 @@
         <v>10</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.04332418076429817</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.04332418076429817</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -520,13 +520,13 @@
         <v>11</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.06099346724616209</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.9390065327538379</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.01619906853771051</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0.9838009314622895</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -548,13 +548,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.9999997615814209</v>
+        <v>0.2077240461859528</v>
       </c>
       <c r="E9">
-        <v>2.384185791015625E-07</v>
+        <v>0.7922759538140471</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -562,16 +562,16 @@
         <v>14</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>7.632347221222383E-28</v>
+        <v>0.5341682101457098</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0.4658317898542902</v>
       </c>
       <c r="F10">
-        <v>37.71335601806641</v>
+        <v>1.34355103969574</v>
       </c>
       <c r="G10">
         <v>0.4444444444444444</v>
@@ -588,10 +588,10 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.06147103592105861</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.06147103592105861</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -602,10 +602,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.9557763857290811</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0.9557763857290811</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -613,13 +613,13 @@
         <v>8</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.5150759946714326</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.5150759946714326</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -627,13 +627,13 @@
         <v>9</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.1244465543032987</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0.1244465543032987</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -641,13 +641,13 @@
         <v>10</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.02304341319258804</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0.02304341319258804</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -655,13 +655,13 @@
         <v>11</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0.06383976400078317</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.9361602359992168</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -672,10 +672,10 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.008592741989594525</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0.9914072580104055</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -686,10 +686,10 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0.5101654295631826</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.4898345704368174</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -700,13 +700,13 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0.7844383574811579</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.2155616425188421</v>
       </c>
       <c r="F19">
-        <v>39.24586486816406</v>
+        <v>1.38732647895813</v>
       </c>
       <c r="G19">
         <v>0.5555555555555556</v>
